--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N2">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O2">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P2">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q2">
-        <v>7.630656355335554</v>
+        <v>2.302426339008</v>
       </c>
       <c r="R2">
-        <v>68.67590719801998</v>
+        <v>20.721837051072</v>
       </c>
       <c r="S2">
-        <v>0.005194828715198665</v>
+        <v>0.002104326348739873</v>
       </c>
       <c r="T2">
-        <v>0.006545558775933105</v>
+        <v>0.00228391715941168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P3">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q3">
-        <v>8.187432416902222</v>
+        <v>5.627322552414</v>
       </c>
       <c r="R3">
-        <v>73.68689175211999</v>
+        <v>50.645902971726</v>
       </c>
       <c r="S3">
-        <v>0.005573872946503793</v>
+        <v>0.005143149606690524</v>
       </c>
       <c r="T3">
-        <v>0.007023159950236926</v>
+        <v>0.005582084569333105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N4">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O4">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P4">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q4">
-        <v>40.65602575581777</v>
+        <v>31.621433722986</v>
       </c>
       <c r="R4">
-        <v>365.90423180236</v>
+        <v>284.592903506874</v>
       </c>
       <c r="S4">
-        <v>0.02767797161963681</v>
+        <v>0.02890073616725587</v>
       </c>
       <c r="T4">
-        <v>0.03487464168065698</v>
+        <v>0.0313672293708398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N5">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O5">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P5">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q5">
-        <v>98.77107465573332</v>
+        <v>14.315783487219</v>
       </c>
       <c r="R5">
-        <v>592.6264479343999</v>
+        <v>85.89470092331401</v>
       </c>
       <c r="S5">
-        <v>0.06724176675756897</v>
+        <v>0.0130840582756665</v>
       </c>
       <c r="T5">
-        <v>0.05648372777868326</v>
+        <v>0.009467132709218094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N6">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O6">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P6">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q6">
-        <v>38.16615434800444</v>
+        <v>41.846808053091</v>
       </c>
       <c r="R6">
-        <v>343.49538913204</v>
+        <v>376.621272477819</v>
       </c>
       <c r="S6">
-        <v>0.0259829070165222</v>
+        <v>0.03824632271828496</v>
       </c>
       <c r="T6">
-        <v>0.03273883594056992</v>
+        <v>0.04151040203103293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N7">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O7">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P7">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q7">
-        <v>14.68174964714211</v>
+        <v>6.445365978147557</v>
       </c>
       <c r="R7">
-        <v>132.135746824279</v>
+        <v>58.008293803328</v>
       </c>
       <c r="S7">
-        <v>0.009995100172870752</v>
+        <v>0.005890808850341389</v>
       </c>
       <c r="T7">
-        <v>0.01259396974176514</v>
+        <v>0.006393551753113567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P8">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q8">
         <v>15.75301355483045</v>
@@ -948,10 +948,10 @@
         <v>141.777121993474</v>
       </c>
       <c r="S8">
-        <v>0.01072439949524478</v>
+        <v>0.0143976295501243</v>
       </c>
       <c r="T8">
-        <v>0.01351289736027947</v>
+        <v>0.01562637525499444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N9">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O9">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P9">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q9">
-        <v>78.22414796301356</v>
+        <v>88.52040547199178</v>
       </c>
       <c r="R9">
-        <v>704.017331667122</v>
+        <v>796.683649247926</v>
       </c>
       <c r="S9">
-        <v>0.05325374792642494</v>
+        <v>0.08090413946363491</v>
       </c>
       <c r="T9">
-        <v>0.06710048708079677</v>
+        <v>0.08780879092213127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N10">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O10">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P10">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q10">
-        <v>190.0402957421467</v>
+        <v>40.07531631991434</v>
       </c>
       <c r="R10">
-        <v>1140.24177445288</v>
+        <v>240.451897919486</v>
       </c>
       <c r="S10">
-        <v>0.1293763916751218</v>
+        <v>0.03662724953989843</v>
       </c>
       <c r="T10">
-        <v>0.1086774075213202</v>
+        <v>0.02650210086672839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N11">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O11">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P11">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q11">
-        <v>73.43351568175089</v>
+        <v>117.1451126795534</v>
       </c>
       <c r="R11">
-        <v>660.901641135758</v>
+        <v>1054.306014115981</v>
       </c>
       <c r="S11">
-        <v>0.04999236214520578</v>
+        <v>0.1070659864601337</v>
       </c>
       <c r="T11">
-        <v>0.06299109416481762</v>
+        <v>0.1162033844284984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N12">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O12">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P12">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q12">
-        <v>13.95646605541022</v>
+        <v>7.482569399317334</v>
       </c>
       <c r="R12">
-        <v>125.608194498692</v>
+        <v>67.34312459385599</v>
       </c>
       <c r="S12">
-        <v>0.009501338712055295</v>
+        <v>0.006838771636899452</v>
       </c>
       <c r="T12">
-        <v>0.01197182321100419</v>
+        <v>0.007422417107577322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P13">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q13">
-        <v>14.97480914961689</v>
+        <v>18.28802547008867</v>
       </c>
       <c r="R13">
-        <v>134.773282346552</v>
+        <v>164.592229230798</v>
       </c>
       <c r="S13">
-        <v>0.01019461039162845</v>
+        <v>0.01671452989011336</v>
       </c>
       <c r="T13">
-        <v>0.01284535548225299</v>
+        <v>0.01814100823780935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N14">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O14">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P14">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q14">
-        <v>74.35984756569512</v>
+        <v>102.7653168874447</v>
       </c>
       <c r="R14">
-        <v>669.2386280912559</v>
+        <v>924.8878519870019</v>
       </c>
       <c r="S14">
-        <v>0.05062299406550615</v>
+        <v>0.0939234234768286</v>
       </c>
       <c r="T14">
-        <v>0.06378569943991141</v>
+        <v>0.1019391876539848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N15">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O15">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P15">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q15">
-        <v>180.6522383523733</v>
+        <v>46.524330283187</v>
       </c>
       <c r="R15">
-        <v>1083.91343011424</v>
+        <v>279.145981699122</v>
       </c>
       <c r="S15">
-        <v>0.1229851524635399</v>
+        <v>0.04252139250394783</v>
       </c>
       <c r="T15">
-        <v>0.1033087054005538</v>
+        <v>0.03076688114147975</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N16">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O16">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P16">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q16">
-        <v>69.80587420255378</v>
+        <v>135.9963791641097</v>
       </c>
       <c r="R16">
-        <v>628.2528678229841</v>
+        <v>1223.967412476987</v>
       </c>
       <c r="S16">
-        <v>0.04752272188792935</v>
+        <v>0.124295296296669</v>
       </c>
       <c r="T16">
-        <v>0.05987931197802125</v>
+        <v>0.1349031057925575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N17">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O17">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P17">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q17">
-        <v>7.570489570570499</v>
+        <v>2.391415232096</v>
       </c>
       <c r="R17">
-        <v>45.42293742342299</v>
+        <v>14.348491392576</v>
       </c>
       <c r="S17">
-        <v>0.005153868131122548</v>
+        <v>0.002185658667302106</v>
       </c>
       <c r="T17">
-        <v>0.004329298567884353</v>
+        <v>0.001581460447855408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H18">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I18">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J18">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.123578</v>
       </c>
       <c r="O18">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P18">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q18">
-        <v>8.122875521523</v>
+        <v>5.844818850343</v>
       </c>
       <c r="R18">
-        <v>48.737253129138</v>
+        <v>35.068913102058</v>
       </c>
       <c r="S18">
-        <v>0.005529923645386916</v>
+        <v>0.005341932596066229</v>
       </c>
       <c r="T18">
-        <v>0.004645188799828478</v>
+        <v>0.003865221611303224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N19">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O19">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P19">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q19">
-        <v>40.335458004219</v>
+        <v>32.843603716957</v>
       </c>
       <c r="R19">
-        <v>242.012748025314</v>
+        <v>197.061622301742</v>
       </c>
       <c r="S19">
-        <v>0.02745973422515533</v>
+        <v>0.03001775106470553</v>
       </c>
       <c r="T19">
-        <v>0.02306643961989705</v>
+        <v>0.0217197162359294</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N20">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O20">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P20">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q20">
-        <v>97.99227690714</v>
+        <v>14.8690892345655</v>
       </c>
       <c r="R20">
-        <v>391.96910762856</v>
+        <v>59.47635693826199</v>
       </c>
       <c r="S20">
-        <v>0.06671157371527638</v>
+        <v>0.01358975778201947</v>
       </c>
       <c r="T20">
-        <v>0.03735890703176266</v>
+        <v>0.006555358574425386</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N21">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O21">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P21">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q21">
-        <v>37.865218925541</v>
+        <v>43.46418927602949</v>
       </c>
       <c r="R21">
-        <v>227.191313553246</v>
+        <v>260.785135656177</v>
       </c>
       <c r="S21">
-        <v>0.02577803499749327</v>
+        <v>0.03972454500306519</v>
       </c>
       <c r="T21">
-        <v>0.02165379616983195</v>
+        <v>0.02874318742960256</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H22">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I22">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J22">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N22">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O22">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P22">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q22">
-        <v>14.11293039239589</v>
+        <v>7.698106087708446</v>
       </c>
       <c r="R22">
-        <v>127.016373531563</v>
+        <v>69.28295478937601</v>
       </c>
       <c r="S22">
-        <v>0.009607857128404803</v>
+        <v>0.007035763620884906</v>
       </c>
       <c r="T22">
-        <v>0.01210603794514839</v>
+        <v>0.00763622109894033</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H23">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I23">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J23">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.123578</v>
       </c>
       <c r="O23">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P23">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q23">
-        <v>15.14269001399755</v>
+        <v>18.81481516446756</v>
       </c>
       <c r="R23">
-        <v>136.284210125978</v>
+        <v>169.333336480208</v>
       </c>
       <c r="S23">
-        <v>0.01030890099710268</v>
+        <v>0.01719599477580596</v>
       </c>
       <c r="T23">
-        <v>0.01298936328629854</v>
+        <v>0.01866356307572506</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H24">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I24">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J24">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N24">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O24">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P24">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q24">
-        <v>75.19348727087043</v>
+        <v>105.7254893765102</v>
       </c>
       <c r="R24">
-        <v>676.741385437834</v>
+        <v>951.5294043885921</v>
       </c>
       <c r="S24">
-        <v>0.05119052263407371</v>
+        <v>0.09662890371739924</v>
       </c>
       <c r="T24">
-        <v>0.06450079358569369</v>
+        <v>0.1048755633495079</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H25">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I25">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J25">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N25">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O25">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P25">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q25">
-        <v>182.6775098348933</v>
+        <v>47.86447155601867</v>
       </c>
       <c r="R25">
-        <v>1096.06505900936</v>
+        <v>287.186829336112</v>
       </c>
       <c r="S25">
-        <v>0.1243639248736106</v>
+        <v>0.04374622847097751</v>
       </c>
       <c r="T25">
-        <v>0.1044668874239378</v>
+        <v>0.03165312640289523</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H26">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I26">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J26">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N26">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O26">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P26">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q26">
-        <v>70.5884598357251</v>
+        <v>139.9137780726836</v>
       </c>
       <c r="R26">
-        <v>635.296138521526</v>
+        <v>1259.224002654152</v>
       </c>
       <c r="S26">
-        <v>0.04805549366141613</v>
+        <v>0.1278756435165452</v>
       </c>
       <c r="T26">
-        <v>0.06055061206291396</v>
+        <v>0.138789012775105</v>
       </c>
     </row>
   </sheetData>
